--- a/Danh sách nhân viên.xlsx
+++ b/Danh sách nhân viên.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\GitHub\MISA.Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PRIVATE\GitHub\MISA.ImportDemo.TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046D81A-1D64-45E9-9C43-83DD5796FCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC63948-9C40-45CE-8905-A94FFE0B7820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="453">
   <si>
     <t>STT</t>
   </si>
@@ -1499,7 +1499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1527,7 +1527,7 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1551,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1836,7 +1835,7 @@
   <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,9 +2015,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>23</v>
       </c>
@@ -3228,7 +3225,7 @@
       <c r="AA7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" s="19" t="s">
+      <c r="AG7" s="5" t="s">
         <v>430</v>
       </c>
     </row>
@@ -3245,7 +3242,7 @@
       <c r="AA8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AG8" s="19" t="s">
+      <c r="AG8" s="5" t="s">
         <v>431</v>
       </c>
     </row>
